--- a/auxfiles/aggrstab.xlsx
+++ b/auxfiles/aggrstab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prgc\lisemgit\openlisem\auxfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DFE2B4-05C5-44ED-8E00-D7007DD826B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D5F243-E546-41FD-BCAF-C161E8610569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B47FE067-3B10-4851-B51D-85ECF3F8297B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$U$71:$U$72</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$V$71:$V$72</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -30,7 +30,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$V$72</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$W$72</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>aggrstab = ((S+0.15*C)/1.3)</t>
   </si>
@@ -146,6 +146,15 @@
   <si>
     <t>7.018*ln(C) + 13.312)</t>
   </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
 </sst>
 </file>
 
@@ -221,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -232,6 +241,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -289,7 +299,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -369,7 +379,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -525,7 +535,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1886524079"/>
@@ -587,7 +597,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1886529071"/>
@@ -635,7 +645,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -686,7 +696,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -766,7 +776,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -910,7 +920,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1926815759"/>
@@ -972,7 +982,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1927139471"/>
@@ -1020,7 +1030,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1071,7 +1081,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1151,7 +1161,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1307,7 +1317,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1781160047"/>
@@ -1369,7 +1379,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="91953487"/>
@@ -1417,7 +1427,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1468,7 +1478,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1548,7 +1558,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="nl-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1710,7 +1720,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92642271"/>
@@ -1772,7 +1782,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92638527"/>
@@ -1820,7 +1830,410 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.45880708661417324"/>
+                  <c:y val="-2.8068314377369494E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$88:$T$99</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$88:$U$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0D1-41BE-8278-4DBD3EEC27E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1185275295"/>
+        <c:axId val="1185285375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1185275295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1185285375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1185285375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1185275295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1991,6 +2404,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3540,6 +3993,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4213,13 +5182,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>334650</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>17864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4243,7 +5212,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12786360"/>
+          <a:off x="0" y="13700760"/>
           <a:ext cx="9135750" cy="5153744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4289,13 +5258,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F16EA55-EFB9-6DC9-ABBD-EB947E40A387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4333,7 +5338,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4439,7 +5444,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4581,7 +5586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4589,10 +5594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A90824-A41A-46DA-956B-5F28F18A83B9}">
-  <dimension ref="D5:X84"/>
+  <dimension ref="D5:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
-      <selection activeCell="O85" sqref="O85"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4692,7 +5697,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" ref="L10:L19" si="3">(J10-K10)^2</f>
+        <f t="shared" ref="L10:L16" si="3">(J10-K10)^2</f>
         <v>1.7671322707916173E-2</v>
       </c>
       <c r="O10" s="3" t="s">
@@ -5041,29 +6046,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="X70" t="s">
+    <row r="70" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="Y70" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="U71">
+    <row r="71" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="V71">
         <v>0.31835655019439835</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="U72">
+    <row r="72" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="Q72" t="s">
+        <v>29</v>
+      </c>
+      <c r="R72" t="s">
+        <v>27</v>
+      </c>
+      <c r="S72" t="s">
+        <v>28</v>
+      </c>
+      <c r="V72">
         <v>1</v>
       </c>
-      <c r="V72">
-        <f>SUM(V73:V84)</f>
-        <v>471.95171635324505</v>
-      </c>
     </row>
-    <row r="73" spans="15:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O73" s="5" t="s">
         <v>12</v>
       </c>
@@ -5082,18 +6092,22 @@
         <v>2</v>
       </c>
       <c r="U73">
-        <f>R73/$U$71+S73/$U$72</f>
-        <v>2.8141963058798218</v>
+        <f>1.4668*EXP(4.6777*S73)</f>
+        <v>1.8533005993460239</v>
       </c>
       <c r="V73">
-        <f>(T73-U73)^2</f>
-        <v>0.6629156245083484</v>
-      </c>
-      <c r="X73">
+        <f>Q73/$V$71+S73/$V$72</f>
+        <v>0.26987925160407672</v>
+      </c>
+      <c r="W73">
+        <f>(T73-V73)^2</f>
+        <v>2.9933178040300699</v>
+      </c>
+      <c r="Y73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="15:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O74" s="5" t="s">
         <v>13</v>
       </c>
@@ -5112,18 +6126,22 @@
         <v>2</v>
       </c>
       <c r="U74">
-        <f t="shared" ref="U74:U84" si="6">R74/$U$71+S74/$U$72</f>
-        <v>2.5629057326180198</v>
+        <f t="shared" ref="U74:U84" si="6">1.4668*EXP(4.6777*S74)</f>
+        <v>1.8533005993460239</v>
       </c>
       <c r="V74">
-        <f t="shared" ref="V74:V84" si="7">(T74-U74)^2</f>
-        <v>0.31686286381422957</v>
-      </c>
-      <c r="X74">
+        <f t="shared" ref="V74:V84" si="7">Q74/$V$71+S74/$V$72</f>
+        <v>0.52116982486587859</v>
+      </c>
+      <c r="W74">
+        <f t="shared" ref="W74:W84" si="8">(T74-V74)^2</f>
+        <v>2.186938686887216</v>
+      </c>
+      <c r="Y74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="15:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O75" s="5" t="s">
         <v>14</v>
       </c>
@@ -5143,17 +6161,21 @@
       </c>
       <c r="U75">
         <f t="shared" si="6"/>
-        <v>2.1417359077521412</v>
+        <v>2.3416437902483849</v>
       </c>
       <c r="V75">
         <f t="shared" si="7"/>
-        <v>0.1283531597941823</v>
-      </c>
-      <c r="X75">
+        <v>0.88528304144313108</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="8"/>
+        <v>2.6073108562511456</v>
+      </c>
+      <c r="Y75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="15:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O76" s="5" t="s">
         <v>15</v>
       </c>
@@ -5173,18 +6195,22 @@
       </c>
       <c r="U76">
         <f t="shared" si="6"/>
-        <v>1.4564528663090099</v>
+        <v>3.7382708211131863</v>
       </c>
       <c r="V76">
         <f t="shared" si="7"/>
-        <v>2.3825377539256714</v>
-      </c>
-      <c r="X76">
-        <f t="shared" ref="X74:X84" si="8">MAX(1,7.018*LN(S76)+13.312)</f>
+        <v>1.4564528663090097</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="8"/>
+        <v>2.3825377539256718</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" ref="Y76:Y84" si="9">MAX(1,7.018*LN(S76)+13.312)</f>
         <v>2.0169647305374845</v>
       </c>
     </row>
-    <row r="77" spans="15:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O77" s="5" t="s">
         <v>16</v>
       </c>
@@ -5204,17 +6230,21 @@
       </c>
       <c r="U77">
         <f t="shared" si="6"/>
-        <v>0.77822643315450502</v>
+        <v>2.9586650122185887</v>
       </c>
       <c r="V77">
         <f t="shared" si="7"/>
-        <v>4.9362777823333523</v>
-      </c>
-      <c r="X77">
+        <v>2.191735907752141</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="8"/>
+        <v>0.65329084281725558</v>
+      </c>
+      <c r="Y77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="15:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O78" s="5" t="s">
         <v>17</v>
       </c>
@@ -5229,8 +6259,16 @@
       <c r="S78" s="2">
         <v>0.05</v>
       </c>
+      <c r="U78">
+        <f t="shared" si="6"/>
+        <v>1.8533005993460239</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="7"/>
+        <v>2.7199623409066458</v>
+      </c>
     </row>
-    <row r="79" spans="15:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O79" s="5" t="s">
         <v>18</v>
       </c>
@@ -5250,18 +6288,22 @@
       </c>
       <c r="U79">
         <f t="shared" si="6"/>
-        <v>2.1346792994635146</v>
+        <v>4.723302122502604</v>
       </c>
       <c r="V79">
         <f t="shared" si="7"/>
-        <v>0.74877991477695371</v>
-      </c>
-      <c r="X79">
+        <v>0.72116982486587877</v>
+      </c>
+      <c r="W79">
         <f t="shared" si="8"/>
+        <v>5.1930669671018093</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="9"/>
         <v>3.5829861736606077</v>
       </c>
     </row>
-    <row r="80" spans="15:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O80" s="5" t="s">
         <v>19</v>
       </c>
@@ -5281,18 +6323,22 @@
       </c>
       <c r="U80">
         <f t="shared" si="6"/>
-        <v>1.2923396497317574</v>
+        <v>7.5404220647840434</v>
       </c>
       <c r="V80">
         <f t="shared" si="7"/>
-        <v>75.823348775633633</v>
-      </c>
-      <c r="X80">
+        <v>1.4493962580203834</v>
+      </c>
+      <c r="W80">
         <f t="shared" si="8"/>
+        <v>73.112824352355815</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="9"/>
         <v>5.9443483302682782</v>
       </c>
     </row>
-    <row r="81" spans="15:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O81" s="5" t="s">
         <v>20</v>
       </c>
@@ -5312,18 +6358,22 @@
       </c>
       <c r="U81">
         <f t="shared" si="6"/>
-        <v>0.66411321657725253</v>
+        <v>7.5404220647840434</v>
       </c>
       <c r="V81">
         <f t="shared" si="7"/>
-        <v>69.487008466042042</v>
-      </c>
-      <c r="X81">
+        <v>2.0776226911748887</v>
+      </c>
+      <c r="W81">
         <f t="shared" si="8"/>
+        <v>47.91930760573679</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="9"/>
         <v>5.9443483302682782</v>
       </c>
     </row>
-    <row r="82" spans="15:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O82" s="5" t="s">
         <v>21</v>
       </c>
@@ -5343,18 +6393,22 @@
       </c>
       <c r="U82">
         <f t="shared" si="6"/>
-        <v>0.76411321657725251</v>
+        <v>12.037757365594125</v>
       </c>
       <c r="V82">
         <f t="shared" si="7"/>
-        <v>202.66047251043048</v>
-      </c>
-      <c r="X82">
+        <v>1.8635094745976362</v>
+      </c>
+      <c r="W82">
         <f t="shared" si="8"/>
+        <v>172.56738332398606</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="9"/>
         <v>7.7080729879436785</v>
       </c>
     </row>
-    <row r="83" spans="15:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O83" s="5" t="s">
         <v>22</v>
       </c>
@@ -5369,8 +6423,16 @@
       <c r="S83" s="2">
         <v>0.4</v>
       </c>
+      <c r="U83">
+        <f t="shared" si="6"/>
+        <v>9.5273171066172981</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="7"/>
+        <v>0.71411321657725246</v>
+      </c>
     </row>
-    <row r="84" spans="15:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O84" s="5" t="s">
         <v>23</v>
       </c>
@@ -5389,15 +6451,338 @@
       </c>
       <c r="U84">
         <f t="shared" si="6"/>
-        <v>1.2852830414431313</v>
+        <v>15.209696577882193</v>
       </c>
       <c r="V84">
         <f t="shared" si="7"/>
+        <v>1.2852830414431313</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="8"/>
         <v>114.80515950198615</v>
       </c>
-      <c r="X84">
-        <f t="shared" si="8"/>
+      <c r="Y84">
+        <f t="shared" si="9"/>
         <v>8.4474930868303026</v>
+      </c>
+    </row>
+    <row r="86" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="T86">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="T87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="2">
+        <f>1-R88-S88</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="R88" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="S88" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="T88" s="8">
+        <f>S88*$T$86+Q88*$T$87</f>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="U88">
+        <v>2</v>
+      </c>
+      <c r="V88">
+        <f>1.4668*EXP(4.6777*S88)</f>
+        <v>1.8533005993460239</v>
+      </c>
+    </row>
+    <row r="89" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="2">
+        <f t="shared" ref="Q89:Q99" si="10">1-R89-S89</f>
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="R89" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S89" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="T89" s="8">
+        <f t="shared" ref="T89:T99" si="11">S89*$T$86+Q89*$T$87</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <f>1.4668*EXP(4.6777*S89)</f>
+        <v>1.8533005993460239</v>
+      </c>
+    </row>
+    <row r="90" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="2">
+        <f t="shared" si="10"/>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="R90" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="S90" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T90" s="8">
+        <f t="shared" si="11"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="U90">
+        <v>2.5</v>
+      </c>
+      <c r="V90">
+        <f>1.4668*EXP(4.6777*S90)</f>
+        <v>2.3416437902483849</v>
+      </c>
+    </row>
+    <row r="91" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="2">
+        <f t="shared" si="10"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="R91" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S91" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="T91" s="8">
+        <f t="shared" si="11"/>
+        <v>1.22</v>
+      </c>
+      <c r="U91">
+        <v>3</v>
+      </c>
+      <c r="V91">
+        <f>1.4668*EXP(4.6777*S91)</f>
+        <v>3.7382708211131863</v>
+      </c>
+    </row>
+    <row r="92" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O92" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="2">
+        <f t="shared" si="10"/>
+        <v>0.65</v>
+      </c>
+      <c r="R92" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S92" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="T92" s="8">
+        <f t="shared" si="11"/>
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="U92">
+        <v>3</v>
+      </c>
+      <c r="V92">
+        <f>1.4668*EXP(4.6777*S92)</f>
+        <v>2.9586650122185887</v>
+      </c>
+    </row>
+    <row r="93" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O93" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="2">
+        <f t="shared" si="10"/>
+        <v>0.85</v>
+      </c>
+      <c r="R93" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S93" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="T93" s="8">
+        <f t="shared" si="11"/>
+        <v>1.0549999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="2">
+        <f t="shared" si="10"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="R94" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="S94" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="T94" s="8">
+        <f t="shared" si="11"/>
+        <v>1.1749999999999998</v>
+      </c>
+      <c r="U94">
+        <v>3</v>
+      </c>
+      <c r="V94">
+        <f>1.4668*EXP(4.6777*S94)</f>
+        <v>4.723302122502604</v>
+      </c>
+    </row>
+    <row r="95" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O95" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="2">
+        <f t="shared" si="10"/>
+        <v>0.35</v>
+      </c>
+      <c r="R95" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S95" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="T95" s="8">
+        <f t="shared" si="11"/>
+        <v>1.7849999999999997</v>
+      </c>
+      <c r="U95">
+        <v>10</v>
+      </c>
+      <c r="V95">
+        <f>1.4668*EXP(4.6777*S95)</f>
+        <v>7.5404220647840434</v>
+      </c>
+    </row>
+    <row r="96" spans="15:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O96" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="2">
+        <f t="shared" si="10"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R96" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S96" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="T96" s="8">
+        <f t="shared" si="11"/>
+        <v>1.9849999999999999</v>
+      </c>
+      <c r="U96">
+        <v>9</v>
+      </c>
+      <c r="V96">
+        <f>1.4668*EXP(4.6777*S96)</f>
+        <v>7.5404220647840434</v>
+      </c>
+    </row>
+    <row r="97" spans="15:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O97" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="2">
+        <f t="shared" si="10"/>
+        <v>0.45</v>
+      </c>
+      <c r="R97" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S97" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="T97" s="8">
+        <f t="shared" si="11"/>
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="U97">
+        <v>15</v>
+      </c>
+      <c r="V97">
+        <f>1.4668*EXP(4.6777*S97)</f>
+        <v>12.037757365594125</v>
+      </c>
+    </row>
+    <row r="98" spans="15:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O98" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="2">
+        <f t="shared" si="10"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="R98" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S98" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T98" s="8">
+        <f t="shared" si="11"/>
+        <v>1.7399999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="15:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O99" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q99" s="2">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="R99">
+        <v>0.25</v>
+      </c>
+      <c r="S99">
+        <v>0.5</v>
+      </c>
+      <c r="T99" s="8">
+        <f t="shared" si="11"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U99">
+        <v>12</v>
+      </c>
+      <c r="V99">
+        <f>1.4668*EXP(4.6777*S99)</f>
+        <v>15.209696577882193</v>
       </c>
     </row>
   </sheetData>
